--- a/notebooks/personas_pob_total_NOMPROV-CONDACT-CAT_OCUP-CAT_INAC.xlsx
+++ b/notebooks/personas_pob_total_NOMPROV-CONDACT-CAT_OCUP-CAT_INAC.xlsx
@@ -593,16 +593,16 @@
         <v>40</v>
       </c>
       <c r="C4">
-        <v>27.5</v>
+        <v>26.3</v>
       </c>
       <c r="D4">
-        <v>538.3</v>
+        <v>543</v>
       </c>
       <c r="F4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
-        <v>22.6</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -665,16 +665,16 @@
         <v>412.5</v>
       </c>
       <c r="D7">
-        <v>7092.4</v>
+        <v>7090</v>
       </c>
       <c r="E7">
         <v>2.5</v>
       </c>
       <c r="F7">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="N7">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -688,7 +688,7 @@
         <v>0.4</v>
       </c>
       <c r="D8">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="N8">
         <v>0.7</v>
@@ -745,16 +745,16 @@
         <v>43</v>
       </c>
       <c r="C11">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D11">
-        <v>145</v>
+        <v>145.4</v>
       </c>
       <c r="E11">
         <v>0.3</v>
       </c>
       <c r="F11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N11">
         <v>0.2</v>
@@ -768,13 +768,13 @@
         <v>40</v>
       </c>
       <c r="C12">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D12">
-        <v>25.8</v>
+        <v>25</v>
       </c>
       <c r="N12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -831,10 +831,10 @@
         <v>43</v>
       </c>
       <c r="C15">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>375.9</v>
+        <v>376.5</v>
       </c>
       <c r="E15">
         <v>0.8</v>
@@ -857,10 +857,10 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D16">
-        <v>17.4</v>
+        <v>16.8</v>
       </c>
       <c r="N16">
         <v>0.6</v>
@@ -914,10 +914,10 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D19">
-        <v>233</v>
+        <v>233.4</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -934,10 +934,10 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="D20">
-        <v>89.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="N20">
         <v>2.6</v>
@@ -997,16 +997,16 @@
         <v>43</v>
       </c>
       <c r="C23">
-        <v>73.59999999999999</v>
+        <v>73.5</v>
       </c>
       <c r="D23">
-        <v>1556.1</v>
+        <v>1555.5</v>
       </c>
       <c r="E23">
         <v>0.1</v>
       </c>
       <c r="F23">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="N23">
         <v>0.1</v>
@@ -1020,13 +1020,13 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D24">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1083,10 +1083,10 @@
         <v>43</v>
       </c>
       <c r="C27">
-        <v>24.1</v>
+        <v>24.4</v>
       </c>
       <c r="D27">
-        <v>356.9</v>
+        <v>356.4</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -1106,13 +1106,16 @@
         <v>40</v>
       </c>
       <c r="C28">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D28">
-        <v>104</v>
+        <v>102.5</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
       </c>
       <c r="N28">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1172,7 +1175,7 @@
         <v>85.8</v>
       </c>
       <c r="D31">
-        <v>1444.3</v>
+        <v>1445.3</v>
       </c>
       <c r="E31">
         <v>0.4</v>
@@ -1192,13 +1195,13 @@
         <v>40</v>
       </c>
       <c r="C32">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="N32">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1249,10 +1252,10 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="D35">
-        <v>506.5</v>
+        <v>506.4</v>
       </c>
       <c r="E35">
         <v>0.2</v>
@@ -1272,10 +1275,13 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D36">
-        <v>12.3</v>
+        <v>12.1</v>
+      </c>
+      <c r="F36">
+        <v>0.1</v>
       </c>
       <c r="N36">
         <v>0.3</v>
@@ -1332,7 +1338,7 @@
         <v>15.4</v>
       </c>
       <c r="D39">
-        <v>182</v>
+        <v>182.2</v>
       </c>
       <c r="E39">
         <v>0.4</v>
@@ -1352,13 +1358,13 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D40">
-        <v>20.8</v>
+        <v>22</v>
       </c>
       <c r="N40">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -1415,16 +1421,16 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D43">
-        <v>264.6</v>
+        <v>263.2</v>
       </c>
       <c r="E43">
         <v>0.3</v>
       </c>
       <c r="F43">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N43">
         <v>0.6</v>
@@ -1438,13 +1444,13 @@
         <v>40</v>
       </c>
       <c r="C44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D44">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="N44">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -1495,13 +1501,13 @@
         <v>43</v>
       </c>
       <c r="C47">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="D47">
-        <v>137.7</v>
+        <v>138</v>
       </c>
       <c r="F47">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N47">
         <v>0.1</v>
@@ -1515,10 +1521,10 @@
         <v>40</v>
       </c>
       <c r="C48">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D48">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="N48">
         <v>0.4</v>
@@ -1572,13 +1578,10 @@
         <v>43</v>
       </c>
       <c r="C51">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>142.9</v>
-      </c>
-      <c r="E51">
-        <v>0.1</v>
+        <v>143.3</v>
       </c>
       <c r="F51">
         <v>0.1</v>
@@ -1592,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C52">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="D52">
-        <v>66.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="N52">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -1655,16 +1658,16 @@
         <v>43</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="D55">
-        <v>715.5</v>
+        <v>714</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F55">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N55">
         <v>0.2</v>
@@ -1678,13 +1681,13 @@
         <v>40</v>
       </c>
       <c r="C56">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="D56">
-        <v>25.9</v>
+        <v>24.6</v>
       </c>
       <c r="N56">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -1741,16 +1744,16 @@
         <v>43</v>
       </c>
       <c r="C59">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="D59">
-        <v>385.1</v>
+        <v>386.1</v>
       </c>
       <c r="E59">
         <v>1.1</v>
       </c>
       <c r="F59">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="I59">
         <v>0.1</v>
@@ -1767,13 +1770,13 @@
         <v>40</v>
       </c>
       <c r="C60">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D60">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="N60">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -1824,10 +1827,10 @@
         <v>43</v>
       </c>
       <c r="C63">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="D63">
-        <v>235.7</v>
+        <v>236</v>
       </c>
       <c r="F63">
         <v>0.9</v>
@@ -1841,13 +1844,13 @@
         <v>40</v>
       </c>
       <c r="C64">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D64">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -1901,16 +1904,16 @@
         <v>43</v>
       </c>
       <c r="C67">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D67">
-        <v>282.3</v>
+        <v>282.6</v>
       </c>
       <c r="E67">
         <v>0.1</v>
       </c>
       <c r="F67">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>0.3</v>
@@ -1924,13 +1927,13 @@
         <v>40</v>
       </c>
       <c r="C68">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="D68">
-        <v>36.9</v>
+        <v>36.1</v>
       </c>
       <c r="N68">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -1984,10 +1987,10 @@
         <v>43</v>
       </c>
       <c r="C71">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D71">
-        <v>448.4</v>
+        <v>449.1</v>
       </c>
       <c r="E71">
         <v>0.7</v>
@@ -2007,16 +2010,16 @@
         <v>40</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D72">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="F72">
         <v>0.1</v>
       </c>
       <c r="N72">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -2070,16 +2073,16 @@
         <v>43</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D75">
-        <v>257.1</v>
+        <v>258.3</v>
       </c>
       <c r="E75">
         <v>0.2</v>
       </c>
       <c r="F75">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="N75">
         <v>0.1</v>
@@ -2093,10 +2096,10 @@
         <v>40</v>
       </c>
       <c r="C76">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>15.3</v>
+        <v>16.4</v>
       </c>
       <c r="N76">
         <v>0.5</v>
@@ -2156,16 +2159,16 @@
         <v>43</v>
       </c>
       <c r="C79">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="D79">
-        <v>180.4</v>
+        <v>179.4</v>
       </c>
       <c r="E79">
         <v>0.3</v>
       </c>
       <c r="F79">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N79">
         <v>0.1</v>
@@ -2182,7 +2185,7 @@
         <v>0.1</v>
       </c>
       <c r="D80">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="N80">
         <v>0.8</v>
@@ -2239,7 +2242,7 @@
         <v>4.6</v>
       </c>
       <c r="D83">
-        <v>126</v>
+        <v>126.2</v>
       </c>
       <c r="F83">
         <v>0.3</v>
@@ -2253,16 +2256,13 @@
         <v>40</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D84">
-        <v>106.4</v>
-      </c>
-      <c r="F84">
-        <v>0.1</v>
+        <v>107.7</v>
       </c>
       <c r="N84">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -2322,13 +2322,13 @@
         <v>94.40000000000001</v>
       </c>
       <c r="D87">
-        <v>1401.4</v>
+        <v>1400.1</v>
       </c>
       <c r="E87">
         <v>0.1</v>
       </c>
       <c r="F87">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="N87">
         <v>0.9</v>
@@ -2342,10 +2342,10 @@
         <v>40</v>
       </c>
       <c r="C88">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D88">
-        <v>22.6</v>
+        <v>23.2</v>
       </c>
       <c r="N88">
         <v>0.2</v>
@@ -2408,16 +2408,16 @@
         <v>43</v>
       </c>
       <c r="C91">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="D91">
-        <v>297.7</v>
+        <v>296.9</v>
       </c>
       <c r="E91">
         <v>0.3</v>
       </c>
       <c r="F91">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N91">
         <v>0.9</v>
@@ -2496,13 +2496,13 @@
         <v>40</v>
       </c>
       <c r="C96">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D96">
-        <v>56.1</v>
+        <v>55.3</v>
       </c>
       <c r="N96">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -2568,13 +2568,13 @@
         <v>28.7</v>
       </c>
       <c r="D99">
-        <v>539.1</v>
+        <v>540.4</v>
       </c>
       <c r="E99">
         <v>1.3</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="N99">
         <v>0.2</v>
